--- a/www/ig/fhir/pdsm/StructureDefinition-pdsm-simplified-publish.xlsx
+++ b/www/ig/fhir/pdsm/StructureDefinition-pdsm-simplified-publish.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2530" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2525" uniqueCount="521">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>PDSm Simplified Publish</t>
+    <t>PDSm Simplified Publish Document Reference</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-20T12:21:07+01:00</t>
+    <t>2024-05-29T10:02:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,16 +72,15 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Ce profil a été créé en s'inspirant du profil MHD Simplified. 
+    <t>Profil utilisé dans le cadre du flux 9 d'ajout simplifié de document. Le flux et le profil sont inspirés d’IHE MHD, transaction ITI-105.
 Contrairement au profil PDSm_ComprehensiveDocumentReference, le document est directement inclus dans DocumentReference.attachment.data et non dans une ressource « Binary » externe.
-Ce profil est utilisé dans le cadre du flux 9. Le flux et le profil sont inspirés d’IHE MHD, version build au 03.10.22  : transaction ITI-105  et du profil SimplifiedPublish.DocumentReference.
-La publication simplifiée est un simple POST d'une ressource DocumentReference conforme à ce profil.</t>
+La publication simplifiée est une simple requête HTTP POST d'une ressource DocumentReference conforme à ce profil.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -277,6 +276,10 @@
     <t>Usually, this is used for documents other than those defined by FHIR.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -330,6 +333,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>DocumentReference.meta.id</t>
   </si>
   <si>
@@ -396,7 +403,7 @@
     <t>DocumentReference.meta.versionId</t>
   </si>
   <si>
-    <t>Numéro de version de la fiche d’un document attribués par le système cible. La valeur de la métadonnée version est égale à 1 pour la première version de la fiche.</t>
+    <t>Numéro de version de la fiche d’un document attribué par le système cible. La valeur de la métadonnée version est égale à 1 pour la première version de la fiche. Cet élément est requis lorsque le flux envoyé correspond à une mise à jour des données d’une fiche.</t>
   </si>
   <si>
     <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
@@ -406,10 +413,6 @@
   </si>
   <si>
     <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-cdr-maj:Elément requis lorsque le flux envoyé correspond à une mise à jour des données d’une fiche {f:meta/f:versionId}</t>
   </si>
   <si>
     <t>DocumentReference.meta.lastUpdated</t>
@@ -431,10 +434,6 @@
     <t>Meta.lastUpdated</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>DocumentReference.meta.source</t>
   </si>
   <si>
@@ -445,7 +444,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -465,7 +464,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -784,9 +783,6 @@
   </si>
   <si>
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
-  </si>
-  <si>
-    <t>XDS typeCode CI-SIS</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J07-XdsTypeCode-CISIS/FHIR/JDV-J07-XdsTypeCode-CISIS</t>
@@ -798,7 +794,7 @@
  TRE_A04-TypeDocument-LOINC, OID : 2.16.840.1.113883.6.1
  TRE_A12-NomenclatureASTM, OID : ASTM
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J66-TypeCode-DMP).
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J07-XdsTypeCode-CISIS peut être utilisé. {f:type}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J07-XdsTypeCode-CISIS peut être utilisé. {null}</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -837,9 +833,6 @@
   </si>
   <si>
     <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
-  </si>
-  <si>
-    <t>XDS classCode CI-SIS</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J06-XdsClassCode-CISIS/FHIR/JDV-J06-XdsClassCode-CISIS</t>
@@ -850,7 +843,7 @@
 -	TRE_A03-ClasseDocument-CISIS, OID : 1.2.250.1.213.1.1.4.1
 -	TRE_A10-NomenclatureURN, OID : URN
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J57-ClassCode-DMP).
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J06-XdsClassCode-CISIS peut être utilisé. {f:category}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J06-XdsClassCode-CISIS peut être utilisé. {null}</t>
   </si>
   <si>
     <t>Composition.class</t>
@@ -868,7 +861,7 @@
     <t>DocumentReference.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
 </t>
   </si>
   <si>
@@ -930,7 +923,7 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-organizationalRole-rass|http://interopsante.org/fhir/StructureDefinition/FrPractitioner|http://interopsante.org/fhir/StructureDefinition/FrOrganization|Device|http://interopsante.org/fhir/StructureDefinition/FrPatient|http://interopsante.org/fhir/StructureDefinition/FrRelatedPerson)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitioner|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization|Device|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person)
 </t>
   </si>
   <si>
@@ -943,14 +936,6 @@
     <t>Not necessarily who did the actual data entry (i.e. typist) or who was the source (informant).</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-author:Cardinalité contrainte à [1..*]
-Reference contrainte à :
-- PractitionerRole : Dans le cas d’un auteur professionnel, c’est le profil PractitionerRoleOrganizationalRoleRASSreprésentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil PractitionerRoleProfessionalRoleRASS représentant l’exercice professionnel et avec FrPractitioner.
-- Device,
-- Patient contrainte au profil FrPatient. {f:author}</t>
-  </si>
-  <si>
     <t>Event.performer.actor</t>
   </si>
   <si>
@@ -972,7 +957,7 @@
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-organizationalRole-rass|https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/organization-rass)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization)
 </t>
   </si>
   <si>
@@ -983,13 +968,6 @@
   </si>
   <si>
     <t>Represents a participant within the author institution who has legally authenticated or attested the document. Legal authentication implies that a document has been signed manually or electronically by the legal Authenticator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-authenticator:Cardinalité contrainte à [1..1]
-Référence contrainte au profil 
-- PractitionerRole : Dans le cas d’un authentificateur professionnel, c’est le profil PractitionerRoleOrganizationalRoleRASS représentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil PractitionerRoleProfessionalRoleRASS représentant l’exercice professionnel et avec FrPractitioner.
--  Organization contrainte au profil FrOrganization. {f:authenticator}</t>
   </si>
   <si>
     <t>Composition.attester</t>
@@ -1173,7 +1151,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-securityLabel:Les codes pour cet élément doivent provenir du ValueSet spécifié par le standard. Lorsqu’aucun code ne correspond au concept recherché, un code provenant de la terminologie de référence TRE_A07-StatusVisibiliteDocument, OID : 1.2.250.1.213.1.1.4.13 peut être utilisé. {f:securityLabel}</t>
+constr-bind-securityLabel:Les codes pour cet élément doivent provenir du ValueSet spécifié par le standard. Lorsqu’aucun code ne correspond au concept recherché, un code provenant de la terminologie de référence TRE_A07-StatusVisibiliteDocument, OID : 1.2.250.1.213.1.1.4.13 peut être utilisé. {null}</t>
   </si>
   <si>
     <t>Composition.confidentiality, Composition.meta.security</t>
@@ -1454,9 +1432,6 @@
   </si>
   <si>
     <t>Note that while IHE mostly issues URNs for format types, not all documents can be identified by a URI.</t>
-  </si>
-  <si>
-    <t>XDS formatCode documents CI-SIS</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J10-XdsFormatCode-CISIS/FHIR/JDV-J10-XdsFormatCode-CISIS</t>
@@ -1469,7 +1444,7 @@
 - TRE_A09-DICOMuidRegistry, OID : 1.2.840.10008.2.6.1
 - TRE_A10-NomenclatureURN, OID : URN
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J60-FormatCode-DMP).
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J10-XdsFormatCode-CISIS peut être utilisé. {f:content/f:format}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J10-XdsFormatCode-CISIS peut être utilisé. {null}</t>
   </si>
   <si>
     <t>Composition.meta.profile</t>
@@ -1549,10 +1524,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-context-event:Nomenclatures utilisées :
-- CCAM pour les actes médicaux (OID="1.2.250.1.213.2.5");
-- CIM-10 pour les diagnostics de pathologie (OID="2.16.840.1.113883.6.3").
-- TRE_A00-ProducteurDocNonPS pour les documents d'expression personnelle du patient. {f:context/f:event}</t>
+constr-bind-context-event:Nomenclatures utilisées : 1) CCAM pour les actes médicaux (OID="1.2.250.1.213.2.5"); 2) CIM-10 pour les diagnostics de pathologie (OID="2.16.840.1.113883.6.3"), 3) TRE_A00-ProducteurDocNonPS pour les documents d'expression personnelle du patient, 4) autre {null}</t>
   </si>
   <si>
     <t>Composition.event.code</t>
@@ -1602,9 +1574,6 @@
     <t>The kind of facility where the patient was seen.</t>
   </si>
   <si>
-    <t>XDS healthcareFacilityTypeCode CI-SIS</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J02-XdsHealthcareFacilityTypeCode-CISIS/FHIR/JDV-J02-XdsHealthcareFacilityTypeCode-CISIS</t>
   </si>
   <si>
@@ -1612,7 +1581,7 @@
 constr-bind-ProducteurDoc-simplified:L’utilisation de cette nomenclature est recommandée mais non obligatoire (prefered) :
 -	TRE_R02-SecteurActivite, OID : 1.2.250.1.71.4.2.4 (lorsque l’auteur du document est un professionnel ou un équipement sous sa responsabilité)
 Les valeurs possibles peuvent être restreintes en fonction du jeu de valeurs correspondant mis à disposition par le projet (exemple : JDV_J61-HealthcareFacilityTypeCode-DMP).
-En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J02-XdsHealthcareFacilityTypeCode-CISIS peut être utilisé. {f:context/f:practiceSetting or f:context/f:facilityType}</t>
+En l’absence de spécifications complémentaires, le jeu de valeurs JDV_J02-XdsHealthcareFacilityTypeCode-CISIS peut être utilisé. {null}</t>
   </si>
   <si>
     <t>usually from a mapping to a local ValueSet</t>
@@ -1642,9 +1611,6 @@
     <t>This is an important piece of metadata that providers often rely upon to quickly sort and/or filter out to find specific content.</t>
   </si>
   <si>
-    <t>XDS practiceSettingCode CI-SIS</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J04-XdsPracticeSettingCode-CISIS/FHIR/JDV-J04-XdsPracticeSettingCode-CISIS</t>
   </si>
   <si>
@@ -1652,10 +1618,6 @@
   </si>
   <si>
     <t>DocumentReference.context.sourcePatientInfo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://interopsante.org/fhir/StructureDefinition/FrPatient) &lt;&lt;contained&gt;&gt;
-</t>
   </si>
   <si>
     <t>Référence vers la ressource Patient titulaire du dossier.</t>
@@ -1814,10 +1776,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2013,15 +1975,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2032,29 +1994,29 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="35.75" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.2265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="119.20703125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="42.265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="35.69140625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="120.0625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="50.64453125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="52.0078125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="81.69140625" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="155.44140625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="84.2265625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="162.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2287,19 +2249,19 @@
         <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>78</v>
@@ -2313,10 +2275,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2327,7 +2289,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>78</v>
@@ -2336,19 +2298,19 @@
         <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2398,13 +2360,13 @@
         <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>78</v>
@@ -2436,10 +2398,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2450,7 +2412,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>78</v>
@@ -2459,16 +2421,16 @@
         <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2519,19 +2481,19 @@
         <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -2557,10 +2519,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2571,7 +2533,7 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>78</v>
@@ -2583,13 +2545,13 @@
         <v>78</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2640,13 +2602,13 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
@@ -2661,7 +2623,7 @@
         <v>78</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>78</v>
@@ -2678,14 +2640,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2704,16 +2666,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2751,19 +2713,19 @@
         <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
@@ -2772,10 +2734,10 @@
         <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -2784,7 +2746,7 @@
         <v>78</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>78</v>
@@ -2801,10 +2763,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2815,28 +2777,28 @@
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2886,19 +2848,19 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
@@ -2907,7 +2869,7 @@
         <v>78</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>78</v>
@@ -2924,10 +2886,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2938,7 +2900,7 @@
         <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>78</v>
@@ -2947,19 +2909,19 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3009,19 +2971,19 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
@@ -3030,7 +2992,7 @@
         <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>78</v>
@@ -3061,7 +3023,7 @@
         <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>78</v>
@@ -3070,7 +3032,7 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>135</v>
@@ -3138,13 +3100,13 @@
         <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -3153,7 +3115,7 @@
         <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>78</v>
@@ -3193,7 +3155,7 @@
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>141</v>
@@ -3264,10 +3226,10 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -3276,7 +3238,7 @@
         <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>78</v>
@@ -3316,7 +3278,7 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>147</v>
@@ -3387,10 +3349,10 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -3439,7 +3401,7 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>147</v>
@@ -3510,10 +3472,10 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -3553,16 +3515,16 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>135</v>
@@ -3630,13 +3592,13 @@
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -3676,7 +3638,7 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -3753,13 +3715,13 @@
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -3799,7 +3761,7 @@
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3876,13 +3838,13 @@
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
@@ -4014,7 +3976,7 @@
         <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -4038,7 +4000,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4057,16 +4019,16 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M17" t="s" s="2">
         <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4128,7 +4090,7 @@
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
@@ -4137,7 +4099,7 @@
         <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -4174,13 +4136,13 @@
         <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>198</v>
@@ -4249,7 +4211,7 @@
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
@@ -4286,19 +4248,19 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>202</v>
@@ -4368,13 +4330,13 @@
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>207</v>
@@ -4417,13 +4379,13 @@
         <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>202</v>
@@ -4495,7 +4457,7 @@
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>207</v>
@@ -4532,19 +4494,19 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>171</v>
@@ -4609,16 +4571,16 @@
         <v>220</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>228</v>
@@ -4667,7 +4629,7 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>171</v>
@@ -4735,13 +4697,13 @@
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>78</v>
@@ -4781,16 +4743,16 @@
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>243</v>
@@ -4830,11 +4792,9 @@
       <c r="X23" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Y23" s="2"/>
+      <c r="Z23" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4858,74 +4818,74 @@
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AO23" t="s" s="2">
+      <c r="AP23" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AP23" t="s" s="2">
+      <c r="AQ23" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AQ23" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>243</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4953,11 +4913,9 @@
       <c r="X24" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>262</v>
-      </c>
+      <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -4975,7 +4933,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4987,36 +4945,36 @@
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AK24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AP24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AQ24" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AP24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AQ24" t="s" s="2">
-        <v>268</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5024,10 +4982,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -5036,16 +4994,16 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5096,80 +5054,80 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AP25" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AO25" t="s" s="2">
+      <c r="AQ25" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AQ25" t="s" s="2">
-        <v>279</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5219,34 +5177,34 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>78</v>
@@ -5257,10 +5215,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5268,31 +5226,31 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5342,7 +5300,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5354,36 +5312,36 @@
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AQ27" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AQ27" t="s" s="2">
-        <v>300</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5394,10 +5352,10 @@
         <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>78</v>
@@ -5406,16 +5364,16 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5465,48 +5423,48 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AK28" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AP28" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AQ28" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AQ28" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5517,7 +5475,7 @@
         <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -5529,16 +5487,16 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5588,28 +5546,28 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5626,10 +5584,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5643,25 +5601,25 @@
         <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5711,7 +5669,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5723,16 +5681,16 @@
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5744,15 +5702,15 @@
         <v>78</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5763,7 +5721,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5775,13 +5733,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5832,13 +5790,13 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
@@ -5853,7 +5811,7 @@
         <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5870,14 +5828,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5896,16 +5854,16 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5955,7 +5913,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5967,7 +5925,7 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -5976,7 +5934,7 @@
         <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5993,14 +5951,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6013,25 +5971,25 @@
         <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -6080,7 +6038,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6092,7 +6050,7 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -6101,7 +6059,7 @@
         <v>78</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -6118,10 +6076,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6129,10 +6087,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -6141,19 +6099,19 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>171</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6182,69 +6140,69 @@
         <v>225</v>
       </c>
       <c r="Y34" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AP34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AQ34" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AQ34" t="s" s="2">
-        <v>344</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6252,10 +6210,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -6264,16 +6222,16 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6324,28 +6282,28 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="AM35" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -6357,15 +6315,15 @@
         <v>78</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6376,31 +6334,31 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -6449,19 +6407,19 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -6470,7 +6428,7 @@
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6479,18 +6437,18 @@
         <v>78</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6504,28 +6462,28 @@
         <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>243</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6574,7 +6532,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6586,36 +6544,36 @@
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AP37" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AK37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AQ37" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AQ37" t="s" s="2">
-        <v>370</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6623,28 +6581,28 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6695,10 +6653,10 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>80</v>
@@ -6707,16 +6665,16 @@
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6733,10 +6691,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6747,7 +6705,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6759,13 +6717,13 @@
         <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6816,13 +6774,13 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
@@ -6837,7 +6795,7 @@
         <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6854,14 +6812,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6880,16 +6838,16 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6939,7 +6897,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6951,7 +6909,7 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
@@ -6960,7 +6918,7 @@
         <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6977,14 +6935,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6997,25 +6955,25 @@
         <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -7064,7 +7022,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -7076,7 +7034,7 @@
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
@@ -7085,7 +7043,7 @@
         <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -7102,10 +7060,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7113,10 +7071,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -7125,16 +7083,16 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7185,48 +7143,48 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AG42" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>383</v>
-      </c>
       <c r="AM42" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7237,7 +7195,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -7249,13 +7207,13 @@
         <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7306,13 +7264,13 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
@@ -7327,7 +7285,7 @@
         <v>78</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -7344,14 +7302,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7370,16 +7328,16 @@
         <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7417,19 +7375,19 @@
         <v>78</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7441,7 +7399,7 @@
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
@@ -7450,7 +7408,7 @@
         <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7467,10 +7425,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7478,10 +7436,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -7490,20 +7448,20 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>171</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7516,7 +7474,7 @@
         <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>78</v>
@@ -7531,58 +7489,58 @@
         <v>225</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AP45" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>78</v>
@@ -7590,10 +7548,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7604,29 +7562,29 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>171</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7639,7 +7597,7 @@
         <v>78</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>78</v>
@@ -7675,19 +7633,19 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
@@ -7696,7 +7654,7 @@
         <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7713,10 +7671,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7724,10 +7682,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7739,19 +7697,19 @@
         <v>78</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O47" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7800,19 +7758,19 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -7821,7 +7779,7 @@
         <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7830,7 +7788,7 @@
         <v>78</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>78</v>
@@ -7838,10 +7796,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7861,22 +7819,22 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="O48" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7889,7 +7847,7 @@
         <v>78</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>78</v>
@@ -7925,19 +7883,19 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
@@ -7946,7 +7904,7 @@
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7955,7 +7913,7 @@
         <v>78</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>78</v>
@@ -7963,10 +7921,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7977,7 +7935,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7986,22 +7944,22 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -8050,19 +8008,19 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
@@ -8071,7 +8029,7 @@
         <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -8088,10 +8046,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8102,7 +8060,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -8111,22 +8069,22 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -8175,19 +8133,19 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
@@ -8196,7 +8154,7 @@
         <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -8213,10 +8171,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8224,10 +8182,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -8236,20 +8194,20 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -8262,7 +8220,7 @@
         <v>78</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>78</v>
@@ -8298,19 +8256,19 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
@@ -8319,7 +8277,7 @@
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -8336,10 +8294,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8350,29 +8308,29 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -8421,19 +8379,19 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
@@ -8442,7 +8400,7 @@
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -8459,10 +8417,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8473,28 +8431,28 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>147</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8522,70 +8480,68 @@
       <c r="X53" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="Y53" t="s" s="2">
+      <c r="Y53" s="2"/>
+      <c r="Z53" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AQ53" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AQ53" t="s" s="2">
-        <v>462</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8596,28 +8552,28 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8667,19 +8623,19 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
@@ -8688,7 +8644,7 @@
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8705,10 +8661,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8719,7 +8675,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8731,13 +8687,13 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8788,13 +8744,13 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
@@ -8809,7 +8765,7 @@
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8826,14 +8782,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8852,16 +8808,16 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8911,7 +8867,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8923,7 +8879,7 @@
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
@@ -8932,7 +8888,7 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8949,14 +8905,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8969,25 +8925,25 @@
         <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -9036,7 +8992,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -9048,7 +9004,7 @@
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
@@ -9057,7 +9013,7 @@
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -9074,10 +9030,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9100,13 +9056,13 @@
         <v>78</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9157,7 +9113,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9169,22 +9125,22 @@
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>78</v>
@@ -9195,10 +9151,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9209,7 +9165,7 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -9224,13 +9180,13 @@
         <v>243</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9259,10 +9215,10 @@
         <v>161</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -9280,7 +9236,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9292,16 +9248,16 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -9313,15 +9269,15 @@
         <v>78</v>
       </c>
       <c r="AQ59" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9332,25 +9288,25 @@
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9401,31 +9357,31 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AG60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>494</v>
-      </c>
       <c r="AN60" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
@@ -9434,15 +9390,15 @@
         <v>78</v>
       </c>
       <c r="AQ60" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9453,10 +9409,10 @@
         <v>79</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>78</v>
@@ -9468,10 +9424,10 @@
         <v>243</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9500,70 +9456,68 @@
       <c r="X61" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="Y61" t="s" s="2">
+      <c r="Y61" s="2"/>
+      <c r="Z61" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AQ61" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AQ61" t="s" s="2">
-        <v>506</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9574,10 +9528,10 @@
         <v>79</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>78</v>
@@ -9589,16 +9543,16 @@
         <v>243</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9625,11 +9579,9 @@
       <c r="X62" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="Y62" t="s" s="2">
-        <v>512</v>
-      </c>
+      <c r="Y62" s="2"/>
       <c r="Z62" t="s" s="2">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>78</v>
@@ -9647,48 +9599,48 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AQ62" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AQ62" t="s" s="2">
-        <v>514</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9699,10 +9651,10 @@
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>78</v>
@@ -9711,13 +9663,13 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>516</v>
+        <v>268</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9768,32 +9720,32 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AM63" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>276</v>
-      </c>
       <c r="AO63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9801,15 +9753,15 @@
         <v>78</v>
       </c>
       <c r="AQ63" t="s" s="2">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9832,16 +9784,16 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9891,7 +9843,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9903,19 +9855,19 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
@@ -9924,7 +9876,7 @@
         <v>78</v>
       </c>
       <c r="AQ64" t="s" s="2">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
